--- a/List of papers_2.xlsx
+++ b/List of papers_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8172150-C419-4FD3-9C1B-76CC80592619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A26E247-6AB3-4AB8-BC8A-EDFAD04B5124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D4211BB4-1A2A-4EC0-825F-5AB5D82D4E43}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="122">
   <si>
     <t>Title</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Factors influencing the use of deep learning for plant disease recognition</t>
   </si>
   <si>
-    <t>Using Deep Learning for Image-Based Plant Disease Detection</t>
-  </si>
-  <si>
     <t>Deep Learning for Tomato Diseases: Classification and Symptoms Visualization</t>
   </si>
   <si>
@@ -291,10 +288,118 @@
     <t xml:space="preserve">Sambasivam et  Opiyo </t>
   </si>
   <si>
-    <t>Junde Chen et al.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plant leaf disease classification using EfficientNet deep learning model   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source </t>
+  </si>
+  <si>
+    <t>Algorithm used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tandfonline </t>
+  </si>
+  <si>
+    <t>CNN (AlexNet, GoogleNet)</t>
+  </si>
+  <si>
+    <t>ACM</t>
+  </si>
+  <si>
+    <t>CNN (LeNet)</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>Science Direct</t>
+  </si>
+  <si>
+    <t>CNN (AlexNet, AlexNetOWTBn, GoogLeNet,  Overfeat, VGG)</t>
+  </si>
+  <si>
+    <t>CNN (GoogleNet)</t>
+  </si>
+  <si>
+    <t>IEEE</t>
+  </si>
+  <si>
+    <t>CNN (MobileNet,  InceptionV3)</t>
+  </si>
+  <si>
+    <t>R-CNN</t>
+  </si>
+  <si>
+    <t>DCNN</t>
+  </si>
+  <si>
+    <t>MCNN</t>
+  </si>
+  <si>
+    <t>Rider-Cuckoo</t>
+  </si>
+  <si>
+    <t>GMDH-Logistic model</t>
+  </si>
+  <si>
+    <t>Inception V3, VGG16, and AlexNet</t>
+  </si>
+  <si>
+    <t>CNN and BRNN</t>
+  </si>
+  <si>
+    <t>CNN (VGG16, InceptionV3 abd GoogLeNetBN)</t>
+  </si>
+  <si>
+    <t>CNN (F-CNN, S-CNN)</t>
+  </si>
+  <si>
+    <t>Bayesian Deep Learning</t>
+  </si>
+  <si>
+    <t>CNN (INC-VGGN)</t>
+  </si>
+  <si>
+    <t>SCNN-KSVM et SCNN-RF</t>
+  </si>
+  <si>
+    <t>CNN and SVM</t>
+  </si>
+  <si>
+    <t>CNN (ResNet, DenseNet)</t>
+  </si>
+  <si>
+    <t>CNN (ResNet50, ResNet50V2, ResNet101V2, Vgg16 and Vgg19)</t>
+  </si>
+  <si>
+    <t>CNN (ResNet50)</t>
+  </si>
+  <si>
+    <t>SVM and MLP</t>
+  </si>
+  <si>
+    <t>CNN ( AlexNet, VGGNet, and YOLO-v3)</t>
+  </si>
+  <si>
+    <t>CNN (VirLeafNet)</t>
+  </si>
+  <si>
+    <t>CNN (ResNet34)</t>
+  </si>
+  <si>
+    <t>CNN (VGG16)</t>
+  </si>
+  <si>
+    <t>CNN (InceptionResNetV2)</t>
+  </si>
+  <si>
+    <t>CNN (AlexNet, ResNet50, VGG16, Inception V3, and EfficientNet</t>
+  </si>
+  <si>
+    <t>Wiley</t>
+  </si>
+  <si>
+    <t>CNN (DenseNet pre-trained on ImageNet and Inception)</t>
   </si>
 </sst>
 </file>
@@ -660,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C59C177-5FDA-4137-A4F2-DE684D428045}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,293 +776,449 @@
     <col min="1" max="1" width="113" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>2019</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8">
         <v>2021</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>2021</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10">
         <v>2020</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11">
         <v>2021</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12">
         <v>2020</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14">
         <v>2021</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15">
         <v>2020</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16">
         <v>2021</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17">
         <v>2021</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18">
         <v>2021</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19">
         <v>2021</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20">
         <v>2020</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22">
         <v>2020</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23">
         <v>2020</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24">
         <v>2019</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25">
         <v>2018</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="C26">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -967,52 +1228,82 @@
       <c r="C27">
         <v>2017</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C28">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C29">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2020</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C30">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C31">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+      <c r="D31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -1022,8 +1313,14 @@
       <c r="C32">
         <v>2018</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
@@ -1031,43 +1328,67 @@
         <v>53</v>
       </c>
       <c r="C33">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+      <c r="D33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C34">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2020</v>
+      </c>
+      <c r="D34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C35">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+      <c r="D35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C36">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2020</v>
+      </c>
+      <c r="D36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -1077,82 +1398,113 @@
       <c r="C37">
         <v>2020</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38">
         <v>2020</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C39">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+      <c r="D39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40">
         <v>2018</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="D41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C42">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C43">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44">
-        <v>2020</v>
+        <v>2020</v>
+      </c>
+      <c r="D43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
